--- a/Supplementary_tables/supp.table8.xlsx
+++ b/Supplementary_tables/supp.table8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sloan/Documents/ColoradoState/projects/tRNAs/Arabidopsis_YAMAT_MS/20190818/Figures.v3/Supplementary_tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Home/Documents/Arabidopsis_YAMAT_01202018/Manuscript_prep/RNA_Biology_submission/RR/Supp.figures/Supplementary_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89C647E-9EB5-BE40-8054-C97EAF5FE232}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFB7CFB-9FB0-164F-A5D1-014A45F90F7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="24240" windowHeight="12960" xr2:uid="{C04E8F6A-7AC9-0C45-A349-019CBF96132F}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="24240" windowHeight="12960" activeTab="1" xr2:uid="{C04E8F6A-7AC9-0C45-A349-019CBF96132F}"/>
   </bookViews>
   <sheets>
     <sheet name="Probes_Oligos" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -317,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -345,6 +347,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -666,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163E26C5-C9D8-D042-86BD-C390E843DD7F}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,49 +690,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -732,19 +727,19 @@
     </row>
     <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -752,19 +747,19 @@
     </row>
     <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -772,27 +767,47 @@
     </row>
     <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D9">
-        <f>LEN(D4)</f>
+    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <f>LEN(D5)</f>
         <v>38</v>
       </c>
     </row>
@@ -806,10 +821,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F1A3DD-E1B5-0B48-9206-97D57CEA6309}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -825,75 +840,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="9">
-        <v>21764.560000000001</v>
-      </c>
-      <c r="F3" s="7">
-        <f>LOG(E3)</f>
-        <v>4.3377498917321677</v>
-      </c>
-      <c r="G3" s="6">
-        <f>F3*3.1268-14.777</f>
-        <v>-1.2137236385318584</v>
-      </c>
-      <c r="H3" s="6">
-        <f>10^G3</f>
-        <v>6.1133091901766544E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>39</v>
@@ -905,24 +901,24 @@
         <v>31</v>
       </c>
       <c r="E4" s="9">
-        <v>20306.560000000001</v>
+        <v>21764.560000000001</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" ref="F4:F42" si="0">LOG(E4)</f>
-        <v>4.3076363586804032</v>
+        <f>LOG(E4)</f>
+        <v>4.3377498917321677</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" ref="G4:G5" si="1">F4*3.1268-14.777</f>
-        <v>-1.3078826336781155</v>
+        <f>F4*3.1268-14.777</f>
+        <v>-1.2137236385318584</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" ref="H4:H5" si="2">10^G4</f>
-        <v>4.9217252533900649E-2</v>
+        <f>10^G4</f>
+        <v>6.1133091901766544E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>39</v>
@@ -934,48 +930,50 @@
         <v>31</v>
       </c>
       <c r="E5" s="9">
+        <v>20306.560000000001</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" ref="F5:F43" si="0">LOG(E5)</f>
+        <v>4.3076363586804032</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" ref="G5:G6" si="1">F5*3.1268-14.777</f>
+        <v>-1.3078826336781155</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" ref="H5:H6" si="2">10^G5</f>
+        <v>4.9217252533900649E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="9">
         <v>20512.852999999999</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>4.3120260677787856</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G6" s="6">
         <f t="shared" si="1"/>
         <v>-1.294156891269294</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H6" s="6">
         <f t="shared" si="2"/>
         <v>5.0797590032294428E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="9">
-        <v>19618.710999999999</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="0"/>
-        <v>4.292670469711763</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>42</v>
@@ -984,17 +982,17 @@
         <v>39</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="9">
-        <v>18239.418000000001</v>
+        <v>19618.710999999999</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" si="0"/>
-        <v>4.2610109763486985</v>
+        <v>4.292670469711763</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>42</v>
@@ -1014,14 +1012,14 @@
         <v>30</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="9">
-        <v>26009.418000000001</v>
+        <v>18239.418000000001</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" si="0"/>
-        <v>4.415130634309814</v>
+        <v>4.2610109763486985</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>42</v>
@@ -1041,14 +1039,14 @@
         <v>30</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="9">
-        <v>31201.418000000001</v>
+        <v>26009.418000000001</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>4.4941743316973346</v>
+        <v>4.415130634309814</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>42</v>
@@ -1068,14 +1066,14 @@
         <v>30</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="9">
-        <v>31132.710999999999</v>
+        <v>31201.418000000001</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
-        <v>4.49321694018386</v>
+        <v>4.4941743316973346</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>42</v>
@@ -1095,14 +1093,14 @@
         <v>30</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="9">
-        <v>36975.125</v>
+        <v>31132.710999999999</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
-        <v>4.5679096508695647</v>
+        <v>4.49321694018386</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>42</v>
@@ -1122,54 +1120,52 @@
         <v>30</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="9">
+        <v>36975.125</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>4.5679096508695647</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="9">
         <v>38686.417999999998</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>4.5875585199809779</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>1</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="6">
-        <v>27093.56</v>
-      </c>
-      <c r="F13" s="7">
-        <f t="shared" si="0"/>
-        <v>4.4328660735741723</v>
-      </c>
-      <c r="G13" s="6">
-        <f>F13*2.1097-10.148</f>
-        <v>-0.79598244458056833</v>
-      </c>
-      <c r="H13" s="6">
-        <f>10^G13</f>
-        <v>0.15996226886111239</v>
+      <c r="G13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>41</v>
@@ -1181,24 +1177,24 @@
         <v>40</v>
       </c>
       <c r="E14" s="6">
-        <v>25858.560000000001</v>
+        <v>27093.56</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="0"/>
-        <v>4.4126043364196006</v>
+        <v>4.4328660735741723</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" ref="G14:G15" si="3">F14*2.1097-10.148</f>
-        <v>-0.83872863145556842</v>
+        <f>F14*2.1097-10.148</f>
+        <v>-0.79598244458056833</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" ref="H14:H15" si="4">10^G14</f>
-        <v>0.14496774003134996</v>
+        <f>10^G14</f>
+        <v>0.15996226886111239</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>41</v>
@@ -1210,48 +1206,50 @@
         <v>40</v>
       </c>
       <c r="E15" s="6">
+        <v>25858.560000000001</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>4.4126043364196006</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" ref="G15:G16" si="3">F15*2.1097-10.148</f>
+        <v>-0.83872863145556842</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" ref="H15:H16" si="4">10^G15</f>
+        <v>0.14496774003134996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>3</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="6">
         <v>29167.56</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F16" s="7">
         <f t="shared" si="0"/>
         <v>4.4649000999185073</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G16" s="6">
         <f t="shared" si="3"/>
         <v>-0.72840025920192453</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H16" s="6">
         <f t="shared" si="4"/>
         <v>0.1868958856192057</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="6">
-        <v>9327.4179999999997</v>
-      </c>
-      <c r="F16" s="7">
-        <f t="shared" si="0"/>
-        <v>3.9697614397226171</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>42</v>
@@ -1260,17 +1258,17 @@
         <v>41</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="6">
-        <v>17933.418000000001</v>
+        <v>9327.4179999999997</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
-        <v>4.2536630713284742</v>
+        <v>3.9697614397226171</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>42</v>
@@ -1290,14 +1288,14 @@
         <v>30</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="6">
-        <v>16311.418</v>
+        <v>17933.418000000001</v>
       </c>
       <c r="F18" s="7">
         <f t="shared" si="0"/>
-        <v>4.2124917171902831</v>
+        <v>4.2536630713284742</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>42</v>
@@ -1317,14 +1315,14 @@
         <v>30</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" s="6">
-        <v>24726.418000000001</v>
+        <v>16311.418</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" si="0"/>
-        <v>4.3931612067168144</v>
+        <v>4.2124917171902831</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>42</v>
@@ -1344,14 +1342,14 @@
         <v>30</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="6">
-        <v>35713.417999999998</v>
+        <v>24726.418000000001</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="0"/>
-        <v>4.5528314169108652</v>
+        <v>4.3931612067168144</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>42</v>
@@ -1371,14 +1369,14 @@
         <v>30</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="6">
-        <v>38333.004000000001</v>
+        <v>35713.417999999998</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>4.5835728544618508</v>
+        <v>4.5528314169108652</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>42</v>
@@ -1398,54 +1396,52 @@
         <v>30</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="6">
+        <v>38333.004000000001</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="0"/>
+        <v>4.5835728544618508</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E23" s="6">
         <v>38681.417999999998</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F23" s="7">
         <f t="shared" si="0"/>
         <v>4.5875023862560393</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>1</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="6">
-        <v>12481.134</v>
-      </c>
-      <c r="F23" s="7">
-        <f t="shared" si="0"/>
-        <v>4.0962540458887684</v>
-      </c>
-      <c r="G23" s="6">
-        <f>F23*1.6978-8.8722</f>
-        <v>-1.9175798808900488</v>
-      </c>
-      <c r="H23" s="6">
-        <f>10^G23</f>
-        <v>1.2089827912076632E-2</v>
+      <c r="G23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>43</v>
@@ -1457,24 +1453,24 @@
         <v>31</v>
       </c>
       <c r="E24" s="6">
-        <v>12007.134</v>
+        <v>12481.134</v>
       </c>
       <c r="F24" s="7">
         <f t="shared" si="0"/>
-        <v>4.0794393574011165</v>
+        <v>4.0962540458887684</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" ref="G24:G25" si="5">F24*1.6978-8.8722</f>
-        <v>-1.9461278590043838</v>
+        <f>F24*1.6978-8.8722</f>
+        <v>-1.9175798808900488</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" ref="H24:H25" si="6">10^G24</f>
-        <v>1.1320670265758771E-2</v>
+        <f>10^G24</f>
+        <v>1.2089827912076632E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>43</v>
@@ -1486,48 +1482,50 @@
         <v>31</v>
       </c>
       <c r="E25" s="6">
+        <v>12007.134</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0794393574011165</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" ref="G25:G26" si="5">F25*1.6978-8.8722</f>
+        <v>-1.9461278590043838</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" ref="H25:H26" si="6">10^G25</f>
+        <v>1.1320670265758771E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>3</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="6">
         <v>15202.841</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F26" s="7">
         <f t="shared" si="0"/>
         <v>4.1819247534270829</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G26" s="6">
         <f t="shared" si="5"/>
         <v>-1.7721281536314981</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H26" s="6">
         <f t="shared" si="6"/>
         <v>1.6899421820772594E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="6">
-        <v>24728.347000000002</v>
-      </c>
-      <c r="F26" s="7">
-        <f t="shared" si="0"/>
-        <v>4.3931950863260294</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>42</v>
@@ -1536,17 +1534,17 @@
         <v>43</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E27" s="6">
-        <v>6254.3469999999998</v>
+        <v>24728.347000000002</v>
       </c>
       <c r="F27" s="7">
         <f t="shared" si="0"/>
-        <v>3.7961819728462514</v>
+        <v>4.3931950863260294</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>42</v>
@@ -1566,14 +1564,14 @@
         <v>30</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" s="6">
-        <v>11083.347</v>
+        <v>6254.3469999999998</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="0"/>
-        <v>4.0446709304401463</v>
+        <v>3.7961819728462514</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>42</v>
@@ -1593,14 +1591,14 @@
         <v>30</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" s="6">
-        <v>14595.347</v>
+        <v>11083.347</v>
       </c>
       <c r="F29" s="7">
         <f t="shared" si="0"/>
-        <v>4.1642144246679029</v>
+        <v>4.0446709304401463</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>42</v>
@@ -1620,14 +1618,14 @@
         <v>30</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" s="6">
-        <v>16721.347000000002</v>
+        <v>14595.347</v>
       </c>
       <c r="F30" s="7">
         <f t="shared" si="0"/>
-        <v>4.223271259413055</v>
+        <v>4.1642144246679029</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>42</v>
@@ -1647,14 +1645,14 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" s="6">
-        <v>23843.347000000002</v>
+        <v>16721.347000000002</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" si="0"/>
-        <v>4.3773672192562465</v>
+        <v>4.223271259413055</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>42</v>
@@ -1674,54 +1672,52 @@
         <v>30</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="6">
+        <v>23843.347000000002</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="0"/>
+        <v>4.3773672192562465</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E33" s="6">
         <v>24260.347000000002</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F33" s="7">
         <f t="shared" si="0"/>
         <v>4.3848970083651571</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
-        <v>1</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="6">
-        <v>15730.811</v>
-      </c>
-      <c r="F33" s="7">
-        <f t="shared" si="0"/>
-        <v>4.1967511131983359</v>
-      </c>
-      <c r="G33" s="6">
-        <f>F33*3.8051-17.918</f>
-        <v>-1.9489423391690117</v>
-      </c>
-      <c r="H33" s="6">
-        <f>10^G33</f>
-        <v>1.1247542965233269E-2</v>
+      <c r="G33" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>49</v>
@@ -1733,24 +1729,24 @@
         <v>32</v>
       </c>
       <c r="E34" s="6">
-        <v>12532.811</v>
+        <v>15730.811</v>
       </c>
       <c r="F34" s="7">
         <f t="shared" si="0"/>
-        <v>4.0980484903772947</v>
+        <v>4.1967511131983359</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" ref="G34:G35" si="7">F34*3.8051-17.918</f>
-        <v>-2.3245156892653558</v>
+        <f>F34*3.8051-17.918</f>
+        <v>-1.9489423391690117</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" ref="H34:H35" si="8">10^G34</f>
-        <v>4.7367919579318256E-3</v>
+        <f>10^G34</f>
+        <v>1.1247542965233269E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>49</v>
@@ -1762,48 +1758,50 @@
         <v>32</v>
       </c>
       <c r="E35" s="6">
+        <v>12532.811</v>
+      </c>
+      <c r="F35" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0980484903772947</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" ref="G35:G36" si="7">F35*3.8051-17.918</f>
+        <v>-2.3245156892653558</v>
+      </c>
+      <c r="H35" s="6">
+        <f t="shared" ref="H35:H36" si="8">10^G35</f>
+        <v>4.7367919579318256E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>3</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="6">
         <v>13888.811</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F36" s="7">
         <f t="shared" si="0"/>
         <v>4.1426650680384478</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G36" s="6">
         <f t="shared" si="7"/>
         <v>-2.1547451496069012</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H36" s="6">
         <f t="shared" si="8"/>
         <v>7.0025279410386443E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="10">
-        <v>36392.317000000003</v>
-      </c>
-      <c r="F36" s="7">
-        <f t="shared" si="0"/>
-        <v>4.5610097068168196</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>42</v>
@@ -1812,17 +1810,17 @@
         <v>49</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E37" s="10">
-        <v>22193.902999999998</v>
+        <v>36392.317000000003</v>
       </c>
       <c r="F37" s="7">
         <f t="shared" si="0"/>
-        <v>4.3462336835888813</v>
+        <v>4.5610097068168196</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>42</v>
@@ -1842,14 +1840,14 @@
         <v>30</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E38" s="10">
-        <v>26105.024000000001</v>
+        <v>22193.902999999998</v>
       </c>
       <c r="F38" s="7">
         <f t="shared" si="0"/>
-        <v>4.4167240968213095</v>
+        <v>4.3462336835888813</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>42</v>
@@ -1869,14 +1867,14 @@
         <v>30</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E39" s="10">
-        <v>31617.024000000001</v>
+        <v>26105.024000000001</v>
       </c>
       <c r="F39" s="7">
         <f t="shared" si="0"/>
-        <v>4.4999209888977836</v>
+        <v>4.4167240968213095</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>42</v>
@@ -1896,14 +1894,14 @@
         <v>30</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E40" s="10">
-        <v>35222.317000000003</v>
+        <v>31617.024000000001</v>
       </c>
       <c r="F40" s="7">
         <f t="shared" si="0"/>
-        <v>4.5468179213989144</v>
+        <v>4.4999209888977836</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>42</v>
@@ -1923,14 +1921,14 @@
         <v>30</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E41" s="10">
-        <v>36934.317000000003</v>
+        <v>35222.317000000003</v>
       </c>
       <c r="F41" s="7">
         <f t="shared" si="0"/>
-        <v>4.5674300723329431</v>
+        <v>4.5468179213989144</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>42</v>
@@ -1950,19 +1948,46 @@
         <v>30</v>
       </c>
       <c r="D42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="10">
+        <v>36934.317000000003</v>
+      </c>
+      <c r="F42" s="7">
+        <f t="shared" si="0"/>
+        <v>4.5674300723329431</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E43" s="10">
         <v>41137.023999999998</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F43" s="7">
         <f t="shared" si="0"/>
         <v>4.6142328700731525</v>
       </c>
-      <c r="G42" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H42" s="6" t="s">
+      <c r="G43" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>42</v>
       </c>
     </row>
